--- a/文档/07-会议纪要/2020-01-05_会议纪要_杜宇森组.xlsx
+++ b/文档/07-会议纪要/2020-01-05_会议纪要_杜宇森组.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dys10\Desktop\实训\07-会议纪要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dys10\Desktop\实训-重构版\07-会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E9ACF5-157F-418B-A8C0-54E12548A682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6096DCE4-2BEE-401A-94EB-7F967B71A189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="37220" windowHeight="21820" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17820" yWindow="1150" windowWidth="18460" windowHeight="12730" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23号会议纪要1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="25号会议纪要5" sheetId="10" state="hidden" r:id="rId11"/>
     <sheet name="25号会议纪要6" sheetId="4" state="hidden" r:id="rId12"/>
     <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId13"/>
-    <sheet name="1月3日号会议纪要" sheetId="14" r:id="rId14"/>
+    <sheet name="1月5日号会议纪要" sheetId="14" r:id="rId14"/>
     <sheet name="26号会议纪要2" sheetId="13" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -1159,7 +1159,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已将需求规格说明书重做</t>
+    <t>已将需求规格说明书重做，新的Git地址为https://gitee.com/UtopiaXC/MDUI-Blog-Forum.git</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4771,7 +4771,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
